--- a/RUS.xlsx
+++ b/RUS.xlsx
@@ -446,340 +446,340 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Akhmat Grozny,L L W L W L L W L L</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,L W L D L D W L D W</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,L L W W L D W W D W</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,W W L W D L W W L D</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,L L D W W L W L W W</t>
-  </si>
-  <si>
-    <t>FK Rostov,L D L W D D L L W L</t>
-  </si>
-  <si>
-    <t>Khimki,W D L D D L L D D W</t>
-  </si>
-  <si>
-    <t>Krasnodar,L L W L W D W W D D</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,W D D W D W D D L D</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,D W L L D W L L W L</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,W W D D L W L L L D</t>
-  </si>
-  <si>
-    <t>Sochi,W W W L W W L L W W</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,W L W D L W L W W D</t>
-  </si>
-  <si>
-    <t>Ufa,L D W D L L W L L D</t>
-  </si>
-  <si>
-    <t>Ural,D L L L D L D W W L</t>
-  </si>
-  <si>
-    <t>Zenit,W W D D W W W W L L</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,1 1 2 0 2 1 0 2 0 0,(9)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,0 2 2 1 1 2 3 0 0 2,(13)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,1 1 3 2 0 2 1 2 0 1,(13)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,3 2 1 1 1 1 1 2 0 2,(14)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,0 1 1 1 2 0 4 1 1 2,(13)</t>
-  </si>
-  <si>
-    <t>FK Rostov,2 1 1 2 1 1 2 1 2 2,(15)</t>
-  </si>
-  <si>
-    <t>Khimki,1 1 0 1 1 1 2 0 0 2,(9)</t>
-  </si>
-  <si>
-    <t>Krasnodar,0 2 3 1 2 1 2 3 0 1,(15)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,2 1 1 2 1 2 0 0 1 2,(12)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,1 2 1 1 1 2 2 0 1 0,(11)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,3 2 1 1 0 4 1 0 0 2,(14)</t>
-  </si>
-  <si>
-    <t>Sochi,2 2 3 0 2 3 0 0 2 3,(17)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,1 1 1 1 1 3 0 2 1 2,(13)</t>
-  </si>
-  <si>
-    <t>Ufa,2 1 2 1 1 1 3 0 0 1,(12)</t>
-  </si>
-  <si>
-    <t>Ural,1 0 0 0 1 0 0 2 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Zenit,4 3 1 1 1 3 3 2 1 1,(20)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,2 2 1 2 1 3 2 1 1 2,(17)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,3 1 3 1 2 2 2 2 0 1,(17)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,2 2 1 0 1 2 0 0 0 0,(8)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,2 1 2 0 1 2 0 0 1 2,(11)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,1 2 1 0 1 2 2 2 0 0,(11)</t>
-  </si>
-  <si>
-    <t>FK Rostov,4 1 3 1 1 1 4 2 1 3,(21)</t>
-  </si>
-  <si>
-    <t>Khimki,0 1 3 1 1 3 3 0 0 0,(12)</t>
-  </si>
-  <si>
-    <t>Krasnodar,1 3 2 2 0 1 0 0 0 1,(10)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,1 1 1 1 1 0 0 0 2 2,(9)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,1 1 2 2 1 1 3 2 0 2,(15)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,0 1 1 1 2 0 3 2 1 2,(13)</t>
-  </si>
-  <si>
-    <t>Sochi,1 0 0 1 1 1 1 3 1 2,(11)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,0 2 0 1 2 1 1 0 0 2,(9)</t>
-  </si>
-  <si>
-    <t>Ufa,3 1 1 1 2 3 2 2 1 1,(17)</t>
-  </si>
-  <si>
-    <t>Ural,1 2 1 1 1 4 0 0 0 1,(11)</t>
-  </si>
-  <si>
-    <t>Zenit,2 2 1 1 0 1 1 1 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,3 3 3 2 3 4 2 3 1 2,(26)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,3 3 5 2 3 4 5 2 0 3,(30)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,3 3 4 2 1 4 1 2 0 1,(21)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,5 3 3 1 2 3 1 2 1 4,(25)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,1 3 2 1 3 2 6 3 1 2,(24)</t>
-  </si>
-  <si>
-    <t>FK Rostov,6 2 4 3 2 2 6 3 3 5,(36)</t>
-  </si>
-  <si>
-    <t>Khimki,1 2 3 2 2 4 5 0 0 2,(21)</t>
-  </si>
-  <si>
-    <t>Krasnodar,1 5 5 3 2 2 2 3 0 2,(25)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,3 2 2 3 2 2 0 0 3 4,(21)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,2 3 3 3 2 3 5 2 1 2,(26)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,3 3 2 2 2 4 4 2 1 4,(27)</t>
-  </si>
-  <si>
-    <t>Sochi,3 2 3 1 3 4 1 3 3 5,(28)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,1 3 1 2 3 4 1 2 1 4,(22)</t>
-  </si>
-  <si>
-    <t>Ufa,5 2 3 2 3 4 5 2 1 2,(29)</t>
-  </si>
-  <si>
-    <t>Ural,2 2 1 1 2 4 0 2 1 1,(16)</t>
-  </si>
-  <si>
-    <t>Zenit,6 5 2 2 1 4 4 3 3 3,(33)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,1-2 2-1 2-1 2-0 2-1 3-1 0-2 1-2 0-1 2-0</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,0-3 2-1 3-2 1-1 2-1 2-2 2-3 2-0 0-0 2-1</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,1-2 2-1 1-3 2-0 1-0 2-2 1-0 0-2 0-0 0-1</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,2-3 2-1 2-1 0-1 1-1 1-2 0-1 2-0 0-1 2-2</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,0-1 2-1 1-1 1-0 1-2 2-0 4-2 2-1 0-1 2-0</t>
-  </si>
-  <si>
-    <t>FK Rostov,2-4 1-1 1-3 1-2 1-1 1-1 4-2 1-2 1-2 3-2</t>
-  </si>
-  <si>
-    <t>Khimki,0-1 1-1 3-0 1-1 1-1 3-1 3-2 0-0 0-0 2-0</t>
-  </si>
-  <si>
-    <t>Krasnodar,0-1 3-2 3-2 2-1 2-0 1-1 0-2 3-0 0-0 1-1</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,1-2 1-1 1-1 2-1 1-1 2-0 0-0 0-0 1-2 2-2</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,1-1 1-2 1-2 1-2 1-1 1-2 2-3 0-2 0-1 2-0</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,0-3 2-1 1-1 1-1 2-0 4-0 1-3 2-0 0-1 2-2</t>
-  </si>
-  <si>
-    <t>Sochi,1-2 2-0 3-0 1-0 1-2 3-1 0-1 3-0 1-2 3-2</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,0-1 1-2 1-0 1-1 1-2 3-1 1-0 2-0 0-1 2-2</t>
-  </si>
-  <si>
-    <t>Ufa,2-3 1-1 1-2 1-1 1-2 3-1 3-2 2-0 0-1 1-1</t>
-  </si>
-  <si>
-    <t>Ural,1-1 2-0 1-0 0-1 1-1 4-0 0-0 2-0 0-1 0-1</t>
-  </si>
-  <si>
-    <t>Zenit,2-4 3-2 1-1 1-1 1-0 3-1 1-3 2-1 1-2 2-1</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,-1 -1 1 -2 1 -2 -2 1 -1 -2,(-8)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,-3 1 -1 0 -1 0 1 -2 0 1,(-4)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,-1 -1 2 2 -1 0 1 2 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,1 1 -1 1 0 -1 1 2 -1 0,(3)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,-1 -1 0 1 1 -2 2 -1 1 2,(2)</t>
-  </si>
-  <si>
-    <t>FK Rostov,-2 0 -2 1 0 0 -2 -1 1 -1,(-6)</t>
-  </si>
-  <si>
-    <t>Khimki,1 0 -3 0 0 -2 -1 0 0 2,(-3)</t>
-  </si>
-  <si>
-    <t>Krasnodar,-1 -1 1 -1 2 0 2 3 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,1 0 0 1 0 2 0 0 -1 0,(3)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,0 1 -1 -1 0 1 -1 -2 1 -2,(-4)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,3 1 0 0 -2 4 -2 -2 -1 0,(1)</t>
-  </si>
-  <si>
-    <t>Sochi,1 2 3 -1 1 2 -1 -3 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,1 -1 1 0 -1 2 -1 2 1 0,(4)</t>
-  </si>
-  <si>
-    <t>Ufa,-1 0 1 0 -1 -2 1 -2 -1 0,(-5)</t>
-  </si>
-  <si>
-    <t>Ural,0 -2 -1 -1 0 -4 0 2 1 -1,(-6)</t>
-  </si>
-  <si>
-    <t>Zenit,2 1 0 0 1 2 2 1 -1 -1,(7)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,Sochi(2) Rubin Kazan(9) Dynamo Moscow(4) CSKA Moscow(3) Arsenal Tula(12) Zenit(1) Krasnodar(5) FK Rostov(14) Spartak Moscow(7) Khimki(13)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,Rubin Kazan(9) FK Krylya Sovetov Samara(8) Krasnodar(5) Spartak Moscow(7) Akhmat Grozny(11) CSKA Moscow(3) Nizhny Novgorod(10) Ural(16) Khimki(13) Zenit(1)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,Lokomotiv Moscow(6) Dynamo Moscow(4) FK Rostov(14) Akhmat Grozny(11) Zenit(1) Arsenal Tula(12) Spartak Moscow(7) Nizhny Novgorod(10) Krasnodar(5) Ural(16)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,Ufa(15) CSKA Moscow(3) Akhmat Grozny(11) Ural(16) Lokomotiv Moscow(6) Nizhny Novgorod(10) Sochi(2) Rubin Kazan(9) FK Krylya Sovetov Samara(8) Spartak Moscow(7)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,Spartak Moscow(7) Arsenal Tula(12) Rubin Kazan(9) Sochi(2) Ufa(15) Lokomotiv Moscow(6) FK Rostov(14) Zenit(1) Dynamo Moscow(4) Nizhny Novgorod(10)</t>
-  </si>
-  <si>
-    <t>FK Rostov,Zenit(1) Khimki(13) CSKA Moscow(3) Nizhny Novgorod(10) Ural(16) Krasnodar(5) FK Krylya Sovetov Samara(8) Akhmat Grozny(11) Lokomotiv Moscow(6) Sochi(2)</t>
-  </si>
-  <si>
-    <t>Khimki,Krasnodar(5) FK Rostov(14) Sochi(2) Rubin Kazan(9) Nizhny Novgorod(10) Spartak Moscow(7) Ufa(15) Lokomotiv Moscow(6) Arsenal Tula(12) Akhmat Grozny(11)</t>
-  </si>
-  <si>
-    <t>Krasnodar,Khimki(13) Zenit(1) Arsenal Tula(12) Lokomotiv Moscow(6) Rubin Kazan(9) FK Rostov(14) Akhmat Grozny(11) Sochi(2) CSKA Moscow(3) Ufa(15)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,CSKA Moscow(3) Ufa(15) Zenit(1) Krasnodar(5) Dynamo Moscow(4) FK Krylya Sovetov Samara(8) Ural(16) Khimki(13) FK Rostov(14) Rubin Kazan(9)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,Ural(16) Spartak Moscow(7) Ufa(15) FK Rostov(14) Khimki(13) Dynamo Moscow(4) Arsenal Tula(12) CSKA Moscow(3) Rubin Kazan(9) FK Krylya Sovetov Samara(8)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,Arsenal Tula(12) Akhmat Grozny(11) FK Krylya Sovetov Samara(8) Khimki(13) Krasnodar(5) Ural(16) Zenit(1) Dynamo Moscow(4) Nizhny Novgorod(10) Lokomotiv Moscow(6)</t>
-  </si>
-  <si>
-    <t>Sochi,Akhmat Grozny(11) Ural(16) Khimki(13) FK Krylya Sovetov Samara(8) Spartak Moscow(7) Ufa(15) Dynamo Moscow(4) Krasnodar(5) Zenit(1) FK Rostov(14)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,FK Krylya Sovetov Samara(8) Nizhny Novgorod(10) Ural(16) Arsenal Tula(12) Sochi(2) Khimki(13) CSKA Moscow(3) Ufa(15) Akhmat Grozny(11) Dynamo Moscow(4)</t>
-  </si>
-  <si>
-    <t>Ufa,Dynamo Moscow(4) Lokomotiv Moscow(6) Nizhny Novgorod(10) Zenit(1) FK Krylya Sovetov Samara(8) Sochi(2) Khimki(13) Spartak Moscow(7) Ural(16) Krasnodar(5)</t>
-  </si>
-  <si>
-    <t>Ural,Nizhny Novgorod(10) Sochi(2) Spartak Moscow(7) Dynamo Moscow(4) FK Rostov(14) Rubin Kazan(9) Lokomotiv Moscow(6) Arsenal Tula(12) Ufa(15) CSKA Moscow(3)</t>
-  </si>
-  <si>
-    <t>Zenit,FK Rostov(14) Krasnodar(5) Lokomotiv Moscow(6) Ufa(15) CSKA Moscow(3) Akhmat Grozny(11) Rubin Kazan(9) FK Krylya Sovetov Samara(8) Sochi(2) Arsenal Tula(12)</t>
+    <t>Akhmat Grozny,W L L W L L</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,L D W L D W</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,L D W W D W</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,D L W W L D</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,W L W L W W</t>
+  </si>
+  <si>
+    <t>FK Rostov,D D L L W L</t>
+  </si>
+  <si>
+    <t>Khimki,D L L D D W</t>
+  </si>
+  <si>
+    <t>Krasnodar,W D W W D D</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,D W D D L D</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,D W L L W L</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,L W L L L D</t>
+  </si>
+  <si>
+    <t>Sochi,W W L L W W</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,L W L W W D</t>
+  </si>
+  <si>
+    <t>Ufa,L L W L L D</t>
+  </si>
+  <si>
+    <t>Ural,D L D W W L</t>
+  </si>
+  <si>
+    <t>Zenit,W W W W L L</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,2 1 0 2 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,1 2 3 0 0 2,(8)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,0 2 1 2 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,1 1 1 2 0 2,(7)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,2 0 4 1 1 2,(10)</t>
+  </si>
+  <si>
+    <t>FK Rostov,1 1 2 1 2 2,(9)</t>
+  </si>
+  <si>
+    <t>Khimki,1 1 2 0 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Krasnodar,2 1 2 3 0 1,(9)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,1 2 0 0 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,1 2 2 0 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,0 4 1 0 0 2,(7)</t>
+  </si>
+  <si>
+    <t>Sochi,2 3 0 0 2 3,(10)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,1 3 0 2 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Ufa,1 1 3 0 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Ural,1 0 0 2 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Zenit,1 3 3 2 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,1 3 2 1 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,2 2 2 2 0 1,(9)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,1 2 0 0 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,1 2 0 0 1 2,(6)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,1 2 2 2 0 0,(7)</t>
+  </si>
+  <si>
+    <t>FK Rostov,1 1 4 2 1 3,(12)</t>
+  </si>
+  <si>
+    <t>Khimki,1 3 3 0 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Krasnodar,0 1 0 0 0 1,(2)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,1 0 0 0 2 2,(5)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,1 1 3 2 0 2,(9)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,2 0 3 2 1 2,(10)</t>
+  </si>
+  <si>
+    <t>Sochi,1 1 1 3 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,2 1 1 0 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Ufa,2 3 2 2 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Ural,1 4 0 0 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Zenit,0 1 1 1 2 2,(7)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,3 4 2 3 1 2,(15)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,3 4 5 2 0 3,(17)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,1 4 1 2 0 1,(9)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,2 3 1 2 1 4,(13)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,3 2 6 3 1 2,(17)</t>
+  </si>
+  <si>
+    <t>FK Rostov,2 2 6 3 3 5,(21)</t>
+  </si>
+  <si>
+    <t>Khimki,2 4 5 0 0 2,(13)</t>
+  </si>
+  <si>
+    <t>Krasnodar,2 2 2 3 0 2,(11)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,2 2 0 0 3 4,(11)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,2 3 5 2 1 2,(15)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,2 4 4 2 1 4,(17)</t>
+  </si>
+  <si>
+    <t>Sochi,3 4 1 3 3 5,(19)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,3 4 1 2 1 4,(15)</t>
+  </si>
+  <si>
+    <t>Ufa,3 4 5 2 1 2,(17)</t>
+  </si>
+  <si>
+    <t>Ural,2 4 0 2 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Zenit,1 4 4 3 3 3,(18)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,2-1 3-1 0-2 1-2 0-1 2-0</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,2-1 2-2 2-3 2-0 0-0 2-1</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,1-0 2-2 1-0 0-2 0-0 0-1</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,1-1 1-2 0-1 2-0 0-1 2-2</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,1-2 2-0 4-2 2-1 0-1 2-0</t>
+  </si>
+  <si>
+    <t>FK Rostov,1-1 1-1 4-2 1-2 1-2 3-2</t>
+  </si>
+  <si>
+    <t>Khimki,1-1 3-1 3-2 0-0 0-0 2-0</t>
+  </si>
+  <si>
+    <t>Krasnodar,2-0 1-1 0-2 3-0 0-0 1-1</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,1-1 2-0 0-0 0-0 1-2 2-2</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,1-1 1-2 2-3 0-2 0-1 2-0</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,2-0 4-0 1-3 2-0 0-1 2-2</t>
+  </si>
+  <si>
+    <t>Sochi,1-2 3-1 0-1 3-0 1-2 3-2</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,1-2 3-1 1-0 2-0 0-1 2-2</t>
+  </si>
+  <si>
+    <t>Ufa,1-2 3-1 3-2 2-0 0-1 1-1</t>
+  </si>
+  <si>
+    <t>Ural,1-1 4-0 0-0 2-0 0-1 0-1</t>
+  </si>
+  <si>
+    <t>Zenit,1-0 3-1 1-3 2-1 1-2 2-1</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,1 -2 -2 1 -1 -2,(-5)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,-1 0 1 -2 0 1,(-1)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,-1 0 1 2 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,0 -1 1 2 -1 0,(1)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,1 -2 2 -1 1 2,(3)</t>
+  </si>
+  <si>
+    <t>FK Rostov,0 0 -2 -1 1 -1,(-3)</t>
+  </si>
+  <si>
+    <t>Khimki,0 -2 -1 0 0 2,(-1)</t>
+  </si>
+  <si>
+    <t>Krasnodar,2 0 2 3 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,0 2 0 0 -1 0,(1)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,0 1 -1 -2 1 -2,(-3)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,-2 4 -2 -2 -1 0,(-3)</t>
+  </si>
+  <si>
+    <t>Sochi,1 2 -1 -3 1 1,(1)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,-1 2 -1 2 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Ufa,-1 -2 1 -2 -1 0,(-5)</t>
+  </si>
+  <si>
+    <t>Ural,0 -4 0 2 1 -1,(-2)</t>
+  </si>
+  <si>
+    <t>Zenit,1 2 2 1 -1 -1,(4)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,Arsenal Tula(12) Zenit(1) Krasnodar(5) FK Rostov(14) Spartak Moscow(7) Khimki(13)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,Akhmat Grozny(11) CSKA Moscow(3) Nizhny Novgorod(10) Ural(16) Khimki(13) Zenit(1)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,Zenit(1) Arsenal Tula(12) Spartak Moscow(7) Nizhny Novgorod(10) Krasnodar(5) Ural(16)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,Lokomotiv Moscow(6) Nizhny Novgorod(10) Sochi(2) Rubin Kazan(9) FK Krylya Sovetov Samara(8) Spartak Moscow(7)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,Ufa(15) Lokomotiv Moscow(6) FK Rostov(14) Zenit(1) Dynamo Moscow(4) Nizhny Novgorod(10)</t>
+  </si>
+  <si>
+    <t>FK Rostov,Ural(16) Krasnodar(5) FK Krylya Sovetov Samara(8) Akhmat Grozny(11) Lokomotiv Moscow(6) Sochi(2)</t>
+  </si>
+  <si>
+    <t>Khimki,Nizhny Novgorod(10) Spartak Moscow(7) Ufa(15) Lokomotiv Moscow(6) Arsenal Tula(12) Akhmat Grozny(11)</t>
+  </si>
+  <si>
+    <t>Krasnodar,Rubin Kazan(9) FK Rostov(14) Akhmat Grozny(11) Sochi(2) CSKA Moscow(3) Ufa(15)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,Dynamo Moscow(4) FK Krylya Sovetov Samara(8) Ural(16) Khimki(13) FK Rostov(14) Rubin Kazan(9)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,Khimki(13) Dynamo Moscow(4) Arsenal Tula(12) CSKA Moscow(3) Rubin Kazan(9) FK Krylya Sovetov Samara(8)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,Krasnodar(5) Ural(16) Zenit(1) Dynamo Moscow(4) Nizhny Novgorod(10) Lokomotiv Moscow(6)</t>
+  </si>
+  <si>
+    <t>Sochi,Spartak Moscow(7) Ufa(15) Dynamo Moscow(4) Krasnodar(5) Zenit(1) FK Rostov(14)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,Sochi(2) Khimki(13) CSKA Moscow(3) Ufa(15) Akhmat Grozny(11) Dynamo Moscow(4)</t>
+  </si>
+  <si>
+    <t>Ufa,FK Krylya Sovetov Samara(8) Sochi(2) Khimki(13) Spartak Moscow(7) Ural(16) Krasnodar(5)</t>
+  </si>
+  <si>
+    <t>Ural,FK Rostov(14) Rubin Kazan(9) Lokomotiv Moscow(6) Arsenal Tula(12) Ufa(15) CSKA Moscow(3)</t>
+  </si>
+  <si>
+    <t>Zenit,CSKA Moscow(3) Akhmat Grozny(11) Rubin Kazan(9) FK Krylya Sovetov Samara(8) Sochi(2) Arsenal Tula(12)</t>
   </si>
   <si>
     <t>rus_division</t>

--- a/RUS.xlsx
+++ b/RUS.xlsx
@@ -464,340 +464,340 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Akhmat Grozny,L L W L W L L W L L W</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,L W L D L D W L D W L</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,L L W W L D W W D W W</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,W W L W D L W W L D W</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,L L D W W L W L W W L</t>
-  </si>
-  <si>
-    <t>FK Rostov,L D L W D D L L W L W</t>
-  </si>
-  <si>
-    <t>Khimki,W D L D D L L D D W L</t>
-  </si>
-  <si>
-    <t>Krasnodar,L L W L W D W W D D W</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,W D D W D W D D L D W</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,D W L L D W L L W L L</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,W W D D L W L L L D D</t>
-  </si>
-  <si>
-    <t>Sochi,W W W L W W L L W W L</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,W L W D L W L W W D L</t>
-  </si>
-  <si>
-    <t>Ufa,L D W D L L W L L D D</t>
-  </si>
-  <si>
-    <t>Ural,D L L L D L D W W L L</t>
-  </si>
-  <si>
-    <t>Zenit,W W D D W W W W L L W</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,1 1 2 0 2 1 0 2 0 0 1,(10)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,0 2 2 1 1 2 3 0 0 2 0,(13)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,1 1 3 2 0 2 1 2 0 1 3,(16)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,3 2 1 1 1 1 1 2 0 2 4,(18)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,0 1 1 1 2 0 4 1 1 2 1,(14)</t>
-  </si>
-  <si>
-    <t>FK Rostov,2 1 1 2 1 1 2 1 2 2 4,(19)</t>
-  </si>
-  <si>
-    <t>Khimki,1 1 0 1 1 1 2 0 0 2 1,(10)</t>
-  </si>
-  <si>
-    <t>Krasnodar,0 2 3 1 2 1 2 3 0 1 4,(19)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,2 1 1 2 1 2 0 0 1 2 2,(14)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,1 2 1 1 1 2 2 0 1 0 1,(12)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,3 2 1 1 0 4 1 0 0 2 1,(15)</t>
-  </si>
-  <si>
-    <t>Sochi,2 2 3 0 2 3 0 0 2 3 1,(18)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,1 1 1 1 1 3 0 2 1 2 1,(14)</t>
-  </si>
-  <si>
-    <t>Ufa,2 1 2 1 1 1 3 0 0 1 1,(13)</t>
-  </si>
-  <si>
-    <t>Ural,1 0 0 0 1 0 0 2 1 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Zenit,4 3 1 1 1 3 3 2 1 1 7,(27)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,2 2 1 2 1 3 2 1 1 2 0,(17)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,3 1 3 1 2 2 2 2 0 1 4,(21)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,2 2 1 0 1 2 0 0 0 0 1,(9)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,2 1 2 0 1 2 0 0 1 2 1,(12)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,1 2 1 0 1 2 2 2 0 0 3,(14)</t>
-  </si>
-  <si>
-    <t>FK Rostov,4 1 3 1 1 1 4 2 1 3 0,(21)</t>
-  </si>
-  <si>
-    <t>Khimki,0 1 3 1 1 3 3 0 0 0 4,(16)</t>
-  </si>
-  <si>
-    <t>Krasnodar,1 3 2 2 0 1 0 0 0 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,1 1 1 1 1 0 0 0 2 2 1,(10)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,1 1 2 2 1 1 3 2 0 2 4,(19)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,0 1 1 1 2 0 3 2 1 2 1,(14)</t>
-  </si>
-  <si>
-    <t>Sochi,1 0 0 1 1 1 1 3 1 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,0 2 0 1 2 1 1 0 0 2 7,(16)</t>
-  </si>
-  <si>
-    <t>Ufa,3 1 1 1 2 3 2 2 1 1 1,(18)</t>
-  </si>
-  <si>
-    <t>Ural,1 2 1 1 1 4 0 0 0 1 1,(12)</t>
-  </si>
-  <si>
-    <t>Zenit,2 2 1 1 0 1 1 1 2 2 1,(14)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,3 3 3 2 3 4 2 3 1 2 1,(27)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,3 3 5 2 3 4 5 2 0 3 4,(34)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,3 3 4 2 1 4 1 2 0 1 4,(25)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,5 3 3 1 2 3 1 2 1 4 5,(30)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,1 3 2 1 3 2 6 3 1 2 4,(28)</t>
-  </si>
-  <si>
-    <t>FK Rostov,6 2 4 3 2 2 6 3 3 5 4,(40)</t>
-  </si>
-  <si>
-    <t>Khimki,1 2 3 2 2 4 5 0 0 2 5,(26)</t>
-  </si>
-  <si>
-    <t>Krasnodar,1 5 5 3 2 2 2 3 0 2 5,(30)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,3 2 2 3 2 2 0 0 3 4 3,(24)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,2 3 3 3 2 3 5 2 1 2 5,(31)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,3 3 2 2 2 4 4 2 1 4 2,(29)</t>
-  </si>
-  <si>
-    <t>Sochi,3 2 3 1 3 4 1 3 3 5 3,(31)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,1 3 1 2 3 4 1 2 1 4 8,(30)</t>
-  </si>
-  <si>
-    <t>Ufa,5 2 3 2 3 4 5 2 1 2 2,(31)</t>
-  </si>
-  <si>
-    <t>Ural,2 2 1 1 2 4 0 2 1 1 1,(17)</t>
-  </si>
-  <si>
-    <t>Zenit,6 5 2 2 1 4 4 3 3 3 8,(41)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,1-2 2-1 2-1 2-0 2-1 3-1 0-2 1-2 0-1 2-0 1-0</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,0-3 2-1 3-2 1-1 2-1 2-2 2-3 2-0 0-0 2-1 4-0</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,1-2 2-1 1-3 2-0 1-0 2-2 1-0 0-2 0-0 0-1 3-1</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,2-3 2-1 2-1 0-1 1-1 1-2 0-1 2-0 0-1 2-2 4-1</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,0-1 2-1 1-1 1-0 1-2 2-0 4-2 2-1 0-1 2-0 3-1</t>
-  </si>
-  <si>
-    <t>FK Rostov,2-4 1-1 1-3 1-2 1-1 1-1 4-2 1-2 1-2 3-2 4-0</t>
-  </si>
-  <si>
-    <t>Khimki,0-1 1-1 3-0 1-1 1-1 3-1 3-2 0-0 0-0 2-0 4-1</t>
-  </si>
-  <si>
-    <t>Krasnodar,0-1 3-2 3-2 2-1 2-0 1-1 0-2 3-0 0-0 1-1 1-4</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,1-2 1-1 1-1 2-1 1-1 2-0 0-0 0-0 1-2 2-2 2-1</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,1-1 1-2 1-2 1-2 1-1 1-2 2-3 0-2 0-1 2-0 1-4</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,0-3 2-1 1-1 1-1 2-0 4-0 1-3 2-0 0-1 2-2 1-1</t>
-  </si>
-  <si>
-    <t>Sochi,1-2 2-0 3-0 1-0 1-2 3-1 0-1 3-0 1-2 3-2 2-1</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,0-1 1-2 1-0 1-1 1-2 3-1 1-0 2-0 0-1 2-2 7-1</t>
-  </si>
-  <si>
-    <t>Ufa,2-3 1-1 1-2 1-1 1-2 3-1 3-2 2-0 0-1 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Ural,1-1 2-0 1-0 0-1 1-1 4-0 0-0 2-0 0-1 0-1 1-0</t>
-  </si>
-  <si>
-    <t>Zenit,2-4 3-2 1-1 1-1 1-0 3-1 1-3 2-1 1-2 2-1 7-1</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,-1 -1 1 -2 1 -2 -2 1 -1 -2 1,(-7)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,-3 1 -1 0 -1 0 1 -2 0 1 -4,(-8)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,-1 -1 2 2 -1 0 1 2 0 1 2,(7)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,1 1 -1 1 0 -1 1 2 -1 0 3,(6)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,-1 -1 0 1 1 -2 2 -1 1 2 -2,(0)</t>
-  </si>
-  <si>
-    <t>FK Rostov,-2 0 -2 1 0 0 -2 -1 1 -1 4,(-2)</t>
-  </si>
-  <si>
-    <t>Khimki,1 0 -3 0 0 -2 -1 0 0 2 -3,(-6)</t>
-  </si>
-  <si>
-    <t>Krasnodar,-1 -1 1 -1 2 0 2 3 0 0 3,(8)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,1 0 0 1 0 2 0 0 -1 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,0 1 -1 -1 0 1 -1 -2 1 -2 -3,(-7)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,3 1 0 0 -2 4 -2 -2 -1 0 0,(1)</t>
-  </si>
-  <si>
-    <t>Sochi,1 2 3 -1 1 2 -1 -3 1 1 -1,(5)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,1 -1 1 0 -1 2 -1 2 1 0 -6,(-2)</t>
-  </si>
-  <si>
-    <t>Ufa,-1 0 1 0 -1 -2 1 -2 -1 0 0,(-5)</t>
-  </si>
-  <si>
-    <t>Ural,0 -2 -1 -1 0 -4 0 2 1 -1 -1,(-7)</t>
-  </si>
-  <si>
-    <t>Zenit,2 1 0 0 1 2 2 1 -1 -1 6,(13)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,Sochi(6) Rubin Kazan(9) Dynamo Moscow(3) CSKA Moscow(2) Arsenal Tula(12) Zenit(1) Krasnodar(4) FK Rostov(13) Spartak Moscow(7) Khimki(14) Ural(16)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,Rubin Kazan(9) FK Krylya Sovetov Samara(8) Krasnodar(4) Spartak Moscow(7) Akhmat Grozny(10) CSKA Moscow(2) Nizhny Novgorod(11) Ural(16) Khimki(14) Zenit(1) FK Rostov(13)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,Lokomotiv Moscow(5) Dynamo Moscow(3) FK Rostov(13) Akhmat Grozny(10) Zenit(1) Arsenal Tula(12) Spartak Moscow(7) Nizhny Novgorod(11) Krasnodar(4) Ural(16) FK Krylya Sovetov Samara(8)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,Ufa(15) CSKA Moscow(2) Akhmat Grozny(10) Ural(16) Lokomotiv Moscow(5) Nizhny Novgorod(11) Sochi(6) Rubin Kazan(9) FK Krylya Sovetov Samara(8) Spartak Moscow(7) Khimki(14)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,Spartak Moscow(7) Arsenal Tula(12) Rubin Kazan(9) Sochi(6) Ufa(15) Lokomotiv Moscow(5) FK Rostov(13) Zenit(1) Dynamo Moscow(3) Nizhny Novgorod(11) CSKA Moscow(2)</t>
-  </si>
-  <si>
-    <t>FK Rostov,Zenit(1) Khimki(14) CSKA Moscow(2) Nizhny Novgorod(11) Ural(16) Krasnodar(4) FK Krylya Sovetov Samara(8) Akhmat Grozny(10) Lokomotiv Moscow(5) Sochi(6) Arsenal Tula(12)</t>
-  </si>
-  <si>
-    <t>Khimki,Krasnodar(4) FK Rostov(13) Sochi(6) Rubin Kazan(9) Nizhny Novgorod(11) Spartak Moscow(7) Ufa(15) Lokomotiv Moscow(5) Arsenal Tula(12) Akhmat Grozny(10) Dynamo Moscow(3)</t>
-  </si>
-  <si>
-    <t>Krasnodar,Khimki(14) Zenit(1) Arsenal Tula(12) Lokomotiv Moscow(5) Rubin Kazan(9) FK Rostov(13) Akhmat Grozny(10) Sochi(6) CSKA Moscow(2) Ufa(15) Nizhny Novgorod(11)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,CSKA Moscow(2) Ufa(15) Zenit(1) Krasnodar(4) Dynamo Moscow(3) FK Krylya Sovetov Samara(8) Ural(16) Khimki(14) FK Rostov(13) Rubin Kazan(9) Sochi(6)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,Ural(16) Spartak Moscow(7) Ufa(15) FK Rostov(13) Khimki(14) Dynamo Moscow(3) Arsenal Tula(12) CSKA Moscow(2) Rubin Kazan(9) FK Krylya Sovetov Samara(8) Krasnodar(4)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,Arsenal Tula(12) Akhmat Grozny(10) FK Krylya Sovetov Samara(8) Khimki(14) Krasnodar(4) Ural(16) Zenit(1) Dynamo Moscow(3) Nizhny Novgorod(11) Lokomotiv Moscow(5) Ufa(15)</t>
-  </si>
-  <si>
-    <t>Sochi,Akhmat Grozny(10) Ural(16) Khimki(14) FK Krylya Sovetov Samara(8) Spartak Moscow(7) Ufa(15) Dynamo Moscow(3) Krasnodar(4) Zenit(1) FK Rostov(13) Lokomotiv Moscow(5)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,FK Krylya Sovetov Samara(8) Nizhny Novgorod(11) Ural(16) Arsenal Tula(12) Sochi(6) Khimki(14) CSKA Moscow(2) Ufa(15) Akhmat Grozny(10) Dynamo Moscow(3) Zenit(1)</t>
-  </si>
-  <si>
-    <t>Ufa,Dynamo Moscow(3) Lokomotiv Moscow(5) Nizhny Novgorod(11) Zenit(1) FK Krylya Sovetov Samara(8) Sochi(6) Khimki(14) Spartak Moscow(7) Ural(16) Krasnodar(4) Rubin Kazan(9)</t>
-  </si>
-  <si>
-    <t>Ural,Nizhny Novgorod(11) Sochi(6) Spartak Moscow(7) Dynamo Moscow(3) FK Rostov(13) Rubin Kazan(9) Lokomotiv Moscow(5) Arsenal Tula(12) Ufa(15) CSKA Moscow(2) Akhmat Grozny(10)</t>
-  </si>
-  <si>
-    <t>Zenit,FK Rostov(13) Krasnodar(4) Lokomotiv Moscow(5) Ufa(15) CSKA Moscow(2) Akhmat Grozny(10) Rubin Kazan(9) FK Krylya Sovetov Samara(8) Sochi(6) Arsenal Tula(12) Spartak Moscow(7)</t>
+    <t>Akhmat Grozny,L L W L L W</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,D W L D W L</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,D W W D W W</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,L W W L D W</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,L W L W W L</t>
+  </si>
+  <si>
+    <t>FK Rostov,D L L W L W</t>
+  </si>
+  <si>
+    <t>Khimki,L L D D W L</t>
+  </si>
+  <si>
+    <t>Krasnodar,D W W D D W</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,W D D L D W</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,W L L W L L</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,W L L L D D</t>
+  </si>
+  <si>
+    <t>Sochi,W L L W W L</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,W L W W D L</t>
+  </si>
+  <si>
+    <t>Ufa,L W L L D D</t>
+  </si>
+  <si>
+    <t>Ural,L D W W L L</t>
+  </si>
+  <si>
+    <t>Zenit,W W W L L W</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,1 0 2 0 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,2 3 0 0 2 0,(7)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,2 1 2 0 1 3,(9)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,1 1 2 0 2 4,(10)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,0 4 1 1 2 1,(9)</t>
+  </si>
+  <si>
+    <t>FK Rostov,1 2 1 2 2 4,(12)</t>
+  </si>
+  <si>
+    <t>Khimki,1 2 0 0 2 1,(6)</t>
+  </si>
+  <si>
+    <t>Krasnodar,1 2 3 0 1 4,(11)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,2 0 0 1 2 2,(7)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,2 2 0 1 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,4 1 0 0 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Sochi,3 0 0 2 3 1,(9)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,3 0 2 1 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Ufa,1 3 0 0 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Ural,0 0 2 1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Zenit,3 3 2 1 1 7,(17)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,3 2 1 1 2 0,(9)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,2 2 2 0 1 4,(11)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,2 0 0 0 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,2 0 0 1 2 1,(6)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,2 2 2 0 0 3,(9)</t>
+  </si>
+  <si>
+    <t>FK Rostov,1 4 2 1 3 0,(11)</t>
+  </si>
+  <si>
+    <t>Khimki,3 3 0 0 0 4,(10)</t>
+  </si>
+  <si>
+    <t>Krasnodar,1 0 0 0 1 1,(3)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,0 0 0 2 2 1,(5)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,1 3 2 0 2 4,(12)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,0 3 2 1 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Sochi,1 1 3 1 2 2,(10)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,1 1 0 0 2 7,(11)</t>
+  </si>
+  <si>
+    <t>Ufa,3 2 2 1 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Ural,4 0 0 0 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Zenit,1 1 1 2 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,4 2 3 1 2 1,(13)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,4 5 2 0 3 4,(18)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,4 1 2 0 1 4,(12)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,3 1 2 1 4 5,(16)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,2 6 3 1 2 4,(18)</t>
+  </si>
+  <si>
+    <t>FK Rostov,2 6 3 3 5 4,(23)</t>
+  </si>
+  <si>
+    <t>Khimki,4 5 0 0 2 5,(16)</t>
+  </si>
+  <si>
+    <t>Krasnodar,2 2 3 0 2 5,(14)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,2 0 0 3 4 3,(12)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,3 5 2 1 2 5,(18)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,4 4 2 1 4 2,(17)</t>
+  </si>
+  <si>
+    <t>Sochi,4 1 3 3 5 3,(19)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,4 1 2 1 4 8,(20)</t>
+  </si>
+  <si>
+    <t>Ufa,4 5 2 1 2 2,(16)</t>
+  </si>
+  <si>
+    <t>Ural,4 0 2 1 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Zenit,4 4 3 3 3 8,(25)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,3-1 0-2 1-2 0-1 2-0 1-0</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,2-2 2-3 2-0 0-0 2-1 4-0</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,2-2 1-0 0-2 0-0 0-1 3-1</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,1-2 0-1 2-0 0-1 2-2 4-1</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,2-0 4-2 2-1 0-1 2-0 3-1</t>
+  </si>
+  <si>
+    <t>FK Rostov,1-1 4-2 1-2 1-2 3-2 4-0</t>
+  </si>
+  <si>
+    <t>Khimki,3-1 3-2 0-0 0-0 2-0 4-1</t>
+  </si>
+  <si>
+    <t>Krasnodar,1-1 0-2 3-0 0-0 1-1 1-4</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,2-0 0-0 0-0 1-2 2-2 2-1</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,1-2 2-3 0-2 0-1 2-0 1-4</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,4-0 1-3 2-0 0-1 2-2 1-1</t>
+  </si>
+  <si>
+    <t>Sochi,3-1 0-1 3-0 1-2 3-2 2-1</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,3-1 1-0 2-0 0-1 2-2 7-1</t>
+  </si>
+  <si>
+    <t>Ufa,3-1 3-2 2-0 0-1 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Ural,4-0 0-0 2-0 0-1 0-1 1-0</t>
+  </si>
+  <si>
+    <t>Zenit,3-1 1-3 2-1 1-2 2-1 7-1</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,-2 -2 1 -1 -2 1,(-5)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,0 1 -2 0 1 -4,(-4)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,0 1 2 0 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,-1 1 2 -1 0 3,(4)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,-2 2 -1 1 2 -2,(0)</t>
+  </si>
+  <si>
+    <t>FK Rostov,0 -2 -1 1 -1 4,(1)</t>
+  </si>
+  <si>
+    <t>Khimki,-2 -1 0 0 2 -3,(-4)</t>
+  </si>
+  <si>
+    <t>Krasnodar,0 2 3 0 0 3,(8)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,2 0 0 -1 0 1,(2)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,1 -1 -2 1 -2 -3,(-6)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,4 -2 -2 -1 0 0,(-1)</t>
+  </si>
+  <si>
+    <t>Sochi,2 -1 -3 1 1 -1,(-1)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,2 -1 2 1 0 -6,(-2)</t>
+  </si>
+  <si>
+    <t>Ufa,-2 1 -2 -1 0 0,(-4)</t>
+  </si>
+  <si>
+    <t>Ural,-4 0 2 1 -1 -1,(-3)</t>
+  </si>
+  <si>
+    <t>Zenit,2 2 1 -1 -1 6,(9)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,Zenit(1) Krasnodar(4) FK Rostov(13) Spartak Moscow(7) Khimki(14) Ural(16)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,CSKA Moscow(2) Nizhny Novgorod(11) Ural(16) Khimki(14) Zenit(1) FK Rostov(13)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,Arsenal Tula(12) Spartak Moscow(7) Nizhny Novgorod(11) Krasnodar(4) Ural(16) FK Krylya Sovetov Samara(8)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,Nizhny Novgorod(11) Sochi(6) Rubin Kazan(9) FK Krylya Sovetov Samara(8) Spartak Moscow(7) Khimki(14)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,Lokomotiv Moscow(5) FK Rostov(13) Zenit(1) Dynamo Moscow(3) Nizhny Novgorod(11) CSKA Moscow(2)</t>
+  </si>
+  <si>
+    <t>FK Rostov,Krasnodar(4) FK Krylya Sovetov Samara(8) Akhmat Grozny(10) Lokomotiv Moscow(5) Sochi(6) Arsenal Tula(12)</t>
+  </si>
+  <si>
+    <t>Khimki,Spartak Moscow(7) Ufa(15) Lokomotiv Moscow(5) Arsenal Tula(12) Akhmat Grozny(10) Dynamo Moscow(3)</t>
+  </si>
+  <si>
+    <t>Krasnodar,FK Rostov(13) Akhmat Grozny(10) Sochi(6) CSKA Moscow(2) Ufa(15) Nizhny Novgorod(11)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,FK Krylya Sovetov Samara(8) Ural(16) Khimki(14) FK Rostov(13) Rubin Kazan(9) Sochi(6)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,Dynamo Moscow(3) Arsenal Tula(12) CSKA Moscow(2) Rubin Kazan(9) FK Krylya Sovetov Samara(8) Krasnodar(4)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,Ural(16) Zenit(1) Dynamo Moscow(3) Nizhny Novgorod(11) Lokomotiv Moscow(5) Ufa(15)</t>
+  </si>
+  <si>
+    <t>Sochi,Ufa(15) Dynamo Moscow(3) Krasnodar(4) Zenit(1) FK Rostov(13) Lokomotiv Moscow(5)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,Khimki(14) CSKA Moscow(2) Ufa(15) Akhmat Grozny(10) Dynamo Moscow(3) Zenit(1)</t>
+  </si>
+  <si>
+    <t>Ufa,Sochi(6) Khimki(14) Spartak Moscow(7) Ural(16) Krasnodar(4) Rubin Kazan(9)</t>
+  </si>
+  <si>
+    <t>Ural,Rubin Kazan(9) Lokomotiv Moscow(5) Arsenal Tula(12) Ufa(15) CSKA Moscow(2) Akhmat Grozny(10)</t>
+  </si>
+  <si>
+    <t>Zenit,Akhmat Grozny(10) Rubin Kazan(9) FK Krylya Sovetov Samara(8) Sochi(6) Arsenal Tula(12) Spartak Moscow(7)</t>
   </si>
   <si>
     <t>rus_division</t>

--- a/RUS.xlsx
+++ b/RUS.xlsx
@@ -491,340 +491,340 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Akhmat Grozny,W L L W L W L L W L L W L W</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,L L W L D L D W L D W L L D</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,W L L W W L D W W D W W L L</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,W W W L W D L W W L D W L W</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,L L L D W W L W L W W L W W</t>
-  </si>
-  <si>
-    <t>FK Rostov,L L D L W D D L L W L W D W</t>
-  </si>
-  <si>
-    <t>Khimki,L W D L D D L L D D W L D L</t>
-  </si>
-  <si>
-    <t>Krasnodar,W L L W L W D W W D D W L L</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,W W D D W D W D D L D W W D</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,W D W L L D W L L W L L L L</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,W W W D D L W L L L D D W L</t>
-  </si>
-  <si>
-    <t>Sochi,L W W W L W W L L W W L W W</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,L W L W D L W L W W D L D D</t>
-  </si>
-  <si>
-    <t>Ufa,L L D W D L L W L L D D W D</t>
-  </si>
-  <si>
-    <t>Ural,L D L L L D L D W W L L D D</t>
-  </si>
-  <si>
-    <t>Zenit,W W W D D W W W W L L W W D</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,2 1 1 2 0 2 1 0 2 0 0 1 0 3,(15)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,1 0 2 2 1 1 2 3 0 0 2 0 1 0,(15)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,1 1 1 3 2 0 2 1 2 0 1 3 0 1,(18)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,2 3 2 1 1 1 1 1 2 0 2 4 1 1,(22)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,1 0 1 1 1 2 0 4 1 1 2 1 1 3,(19)</t>
-  </si>
-  <si>
-    <t>FK Rostov,0 2 1 1 2 1 1 2 1 2 2 4 1 5,(25)</t>
-  </si>
-  <si>
-    <t>Khimki,1 1 1 0 1 1 1 2 0 0 2 1 0 0,(11)</t>
-  </si>
-  <si>
-    <t>Krasnodar,3 0 2 3 1 2 1 2 3 0 1 4 0 0,(22)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,3 2 1 1 2 1 2 0 0 1 2 2 2 1,(20)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,1 1 2 1 1 1 2 2 0 1 0 1 1 1,(15)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,1 3 2 1 1 0 4 1 0 0 2 1 1 1,(18)</t>
-  </si>
-  <si>
-    <t>Sochi,0 2 2 3 0 2 3 0 0 2 3 1 2 4,(24)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,0 1 1 1 1 1 3 0 2 1 2 1 1 1,(16)</t>
-  </si>
-  <si>
-    <t>Ufa,0 2 1 2 1 1 1 3 0 0 1 1 1 0,(14)</t>
-  </si>
-  <si>
-    <t>Ural,0 1 0 0 0 1 0 0 2 1 0 0 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Zenit,3 4 3 1 1 1 3 3 2 1 1 7 4 0,(34)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,1 2 2 1 2 1 3 2 1 1 2 0 1 1,(20)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,3 3 1 3 1 2 2 2 2 0 1 4 2 0,(26)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,0 2 2 1 0 1 2 0 0 0 0 1 1 4,(14)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,0 2 1 2 0 1 2 0 0 1 2 1 4 0,(16)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,2 1 2 1 0 1 2 2 2 0 0 3 0 0,(16)</t>
-  </si>
-  <si>
-    <t>FK Rostov,2 4 1 3 1 1 1 4 2 1 3 0 1 1,(25)</t>
-  </si>
-  <si>
-    <t>Khimki,3 0 1 3 1 1 3 3 0 0 0 4 0 3,(22)</t>
-  </si>
-  <si>
-    <t>Krasnodar,0 1 3 2 2 0 1 0 0 0 1 1 1 1,(13)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,1 1 1 1 1 1 0 0 0 2 2 1 1 1,(13)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,0 1 1 2 2 1 1 3 2 0 2 4 2 3,(24)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,0 0 1 1 1 2 0 3 2 1 2 1 0 5,(19)</t>
-  </si>
-  <si>
-    <t>Sochi,1 1 0 0 1 1 1 1 3 1 2 2 1 1,(16)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,1 0 2 0 1 2 1 1 0 0 2 7 1 1,(19)</t>
-  </si>
-  <si>
-    <t>Ufa,1 3 1 1 1 2 3 2 2 1 1 1 0 0,(19)</t>
-  </si>
-  <si>
-    <t>Ural,3 1 2 1 1 1 4 0 0 0 1 1 0 0,(15)</t>
-  </si>
-  <si>
-    <t>Zenit,1 2 2 1 1 0 1 1 1 2 2 1 1 0,(16)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,3 3 3 3 2 3 4 2 3 1 2 1 1 4,(35)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,4 3 3 5 2 3 4 5 2 0 3 4 3 0,(41)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,1 3 3 4 2 1 4 1 2 0 1 4 1 5,(32)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,2 5 3 3 1 2 3 1 2 1 4 5 5 1,(38)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,3 1 3 2 1 3 2 6 3 1 2 4 1 3,(35)</t>
-  </si>
-  <si>
-    <t>FK Rostov,2 6 2 4 3 2 2 6 3 3 5 4 2 6,(50)</t>
-  </si>
-  <si>
-    <t>Khimki,4 1 2 3 2 2 4 5 0 0 2 5 0 3,(33)</t>
-  </si>
-  <si>
-    <t>Krasnodar,3 1 5 5 3 2 2 2 3 0 2 5 1 1,(35)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,4 3 2 2 3 2 2 0 0 3 4 3 3 2,(33)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,1 2 3 3 3 2 3 5 2 1 2 5 3 4,(39)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,1 3 3 2 2 2 4 4 2 1 4 2 1 6,(37)</t>
-  </si>
-  <si>
-    <t>Sochi,1 3 2 3 1 3 4 1 3 3 5 3 3 5,(40)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,1 1 3 1 2 3 4 1 2 1 4 8 2 2,(35)</t>
-  </si>
-  <si>
-    <t>Ufa,1 5 2 3 2 3 4 5 2 1 2 2 1 0,(33)</t>
-  </si>
-  <si>
-    <t>Ural,3 2 2 1 1 2 4 0 2 1 1 1 0 0,(20)</t>
-  </si>
-  <si>
-    <t>Zenit,4 6 5 2 2 1 4 4 3 3 3 8 5 0,(50)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,1-2 1-2 2-1 2-1 2-0 2-1 3-1 0-2 1-2 0-1 2-0 1-0 1-0 3-1</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,3-1 0-3 2-1 3-2 1-1 2-1 2-2 2-3 2-0 0-0 2-1 4-0 1-2 0-0</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,1-0 1-2 2-1 1-3 2-0 1-0 2-2 1-0 0-2 0-0 0-1 3-1 1-0 4-1</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,0-2 2-3 2-1 2-1 0-1 1-1 1-2 0-1 2-0 0-1 2-2 4-1 4-1 1-0</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,1-2 0-1 2-1 1-1 1-0 1-2 2-0 4-2 2-1 0-1 2-0 3-1 0-1 3-0</t>
-  </si>
-  <si>
-    <t>FK Rostov,0-2 2-4 1-1 1-3 1-2 1-1 1-1 4-2 1-2 1-2 3-2 4-0 1-1 5-1</t>
-  </si>
-  <si>
-    <t>Khimki,1-3 0-1 1-1 3-0 1-1 1-1 3-1 3-2 0-0 0-0 2-0 4-1 0-0 3-0</t>
-  </si>
-  <si>
-    <t>Krasnodar,0-3 0-1 3-2 3-2 2-1 2-0 1-1 0-2 3-0 0-0 1-1 1-4 0-1 1-0</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,3-1 1-2 1-1 1-1 2-1 1-1 2-0 0-0 0-0 1-2 2-2 2-1 1-2 1-1</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,1-0 1-1 1-2 1-2 1-2 1-1 1-2 2-3 0-2 0-1 2-0 1-4 1-2 3-1</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,1-0 0-3 2-1 1-1 1-1 2-0 4-0 1-3 2-0 0-1 2-2 1-1 1-0 5-1</t>
-  </si>
-  <si>
-    <t>Sochi,1-0 1-2 2-0 3-0 1-0 1-2 3-1 0-1 3-0 1-2 3-2 2-1 1-2 4-1</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,1-0 0-1 1-2 1-0 1-1 1-2 3-1 1-0 2-0 0-1 2-2 7-1 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Ufa,1-0 2-3 1-1 1-2 1-1 1-2 3-1 3-2 2-0 0-1 1-1 1-1 1-0 0-0</t>
-  </si>
-  <si>
-    <t>Ural,0-3 1-1 2-0 1-0 0-1 1-1 4-0 0-0 2-0 0-1 0-1 1-0 0-0 0-0</t>
-  </si>
-  <si>
-    <t>Zenit,1-3 2-4 3-2 1-1 1-1 1-0 3-1 1-3 2-1 1-2 2-1 7-1 4-1 0-0</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,1 -1 -1 1 -2 1 -2 -2 1 -1 -2 1 -1 2,(-5)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,-2 -3 1 -1 0 -1 0 1 -2 0 1 -4 -1 0,(-11)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,1 -1 -1 2 2 -1 0 1 2 0 1 2 -1 -3,(4)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,2 1 1 -1 1 0 -1 1 2 -1 0 3 -3 1,(6)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,-1 -1 -1 0 1 1 -2 2 -1 1 2 -2 1 3,(3)</t>
-  </si>
-  <si>
-    <t>FK Rostov,-2 -2 0 -2 1 0 0 -2 -1 1 -1 4 0 4,(0)</t>
-  </si>
-  <si>
-    <t>Khimki,-2 1 0 -3 0 0 -2 -1 0 0 2 -3 0 -3,(-11)</t>
-  </si>
-  <si>
-    <t>Krasnodar,3 -1 -1 1 -1 2 0 2 3 0 0 3 -1 -1,(9)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,2 1 0 0 1 0 2 0 0 -1 0 1 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,1 0 1 -1 -1 0 1 -1 -2 1 -2 -3 -1 -2,(-9)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,1 3 1 0 0 -2 4 -2 -2 -1 0 0 1 -4,(-1)</t>
-  </si>
-  <si>
-    <t>Sochi,-1 1 2 3 -1 1 2 -1 -3 1 1 -1 1 3,(8)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,-1 1 -1 1 0 -1 2 -1 2 1 0 -6 0 0,(-3)</t>
-  </si>
-  <si>
-    <t>Ufa,-1 -1 0 1 0 -1 -2 1 -2 -1 0 0 1 0,(-5)</t>
-  </si>
-  <si>
-    <t>Ural,-3 0 -2 -1 -1 0 -4 0 2 1 -1 -1 0 0,(-10)</t>
-  </si>
-  <si>
-    <t>Zenit,2 2 1 0 0 1 2 2 1 -1 -1 6 3 0,(18)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,FK Krylya Sovetov Samara(6) Sochi(2) Rubin Kazan(8) Dynamo Moscow(3) CSKA Moscow(5) Arsenal Tula(14) Zenit(1) Krasnodar(7) FK Rostov(11) Spartak Moscow(9) Khimki(15) Ural(16) Ufa(13) Nizhny Novgorod(12)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,Lokomotiv Moscow(4) Rubin Kazan(8) FK Krylya Sovetov Samara(6) Krasnodar(7) Spartak Moscow(9) Akhmat Grozny(10) CSKA Moscow(5) Nizhny Novgorod(12) Ural(16) Khimki(15) Zenit(1) FK Rostov(11) Sochi(2) Ufa(13)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,Ufa(13) Lokomotiv Moscow(4) Dynamo Moscow(3) FK Rostov(11) Akhmat Grozny(10) Zenit(1) Arsenal Tula(14) Spartak Moscow(9) Nizhny Novgorod(12) Krasnodar(7) Ural(16) FK Krylya Sovetov Samara(6) Rubin Kazan(8) Sochi(2)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,FK Rostov(11) Ufa(13) CSKA Moscow(5) Akhmat Grozny(10) Ural(16) Lokomotiv Moscow(4) Nizhny Novgorod(12) Sochi(2) Rubin Kazan(8) FK Krylya Sovetov Samara(6) Spartak Moscow(9) Khimki(15) Zenit(1) Krasnodar(7)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,Akhmat Grozny(10) Spartak Moscow(9) Arsenal Tula(14) Rubin Kazan(8) Sochi(2) Ufa(13) Lokomotiv Moscow(4) FK Rostov(11) Zenit(1) Dynamo Moscow(3) Nizhny Novgorod(12) CSKA Moscow(5) Krasnodar(7) Khimki(15)</t>
-  </si>
-  <si>
-    <t>FK Rostov,Dynamo Moscow(3) Zenit(1) Khimki(15) CSKA Moscow(5) Nizhny Novgorod(12) Ural(16) Krasnodar(7) FK Krylya Sovetov Samara(6) Akhmat Grozny(10) Lokomotiv Moscow(4) Sochi(2) Arsenal Tula(14) Spartak Moscow(9) Rubin Kazan(8)</t>
-  </si>
-  <si>
-    <t>Khimki,Zenit(1) Krasnodar(7) FK Rostov(11) Sochi(2) Rubin Kazan(8) Nizhny Novgorod(12) Spartak Moscow(9) Ufa(13) Lokomotiv Moscow(4) Arsenal Tula(14) Akhmat Grozny(10) Dynamo Moscow(3) Ural(16) FK Krylya Sovetov Samara(6)</t>
-  </si>
-  <si>
-    <t>Krasnodar,Ural(16) Khimki(15) Zenit(1) Arsenal Tula(14) Lokomotiv Moscow(4) Rubin Kazan(8) FK Rostov(11) Akhmat Grozny(10) Sochi(2) CSKA Moscow(5) Ufa(13) Nizhny Novgorod(12) FK Krylya Sovetov Samara(6) Dynamo Moscow(3)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,Arsenal Tula(14) CSKA Moscow(5) Ufa(13) Zenit(1) Krasnodar(7) Dynamo Moscow(3) FK Krylya Sovetov Samara(6) Ural(16) Khimki(15) FK Rostov(11) Rubin Kazan(8) Sochi(2) Nizhny Novgorod(12) Spartak Moscow(9)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,Sochi(2) Ural(16) Spartak Moscow(9) Ufa(13) FK Rostov(11) Khimki(15) Dynamo Moscow(3) Arsenal Tula(14) CSKA Moscow(5) Rubin Kazan(8) FK Krylya Sovetov Samara(6) Krasnodar(7) Lokomotiv Moscow(4) Akhmat Grozny(10)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,Spartak Moscow(9) Arsenal Tula(14) Akhmat Grozny(10) FK Krylya Sovetov Samara(6) Khimki(15) Krasnodar(7) Ural(16) Zenit(1) Dynamo Moscow(3) Nizhny Novgorod(12) Lokomotiv Moscow(4) Ufa(13) CSKA Moscow(5) FK Rostov(11)</t>
-  </si>
-  <si>
-    <t>Sochi,Nizhny Novgorod(12) Akhmat Grozny(10) Ural(16) Khimki(15) FK Krylya Sovetov Samara(6) Spartak Moscow(9) Ufa(13) Dynamo Moscow(3) Krasnodar(7) Zenit(1) FK Rostov(11) Lokomotiv Moscow(4) Arsenal Tula(14) CSKA Moscow(5)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,Rubin Kazan(8) FK Krylya Sovetov Samara(6) Nizhny Novgorod(12) Ural(16) Arsenal Tula(14) Sochi(2) Khimki(15) CSKA Moscow(5) Ufa(13) Akhmat Grozny(10) Dynamo Moscow(3) Zenit(1) FK Rostov(11) Lokomotiv Moscow(4)</t>
-  </si>
-  <si>
-    <t>Ufa,CSKA Moscow(5) Dynamo Moscow(3) Lokomotiv Moscow(4) Nizhny Novgorod(12) Zenit(1) FK Krylya Sovetov Samara(6) Sochi(2) Khimki(15) Spartak Moscow(9) Ural(16) Krasnodar(7) Rubin Kazan(8) Akhmat Grozny(10) Arsenal Tula(14)</t>
-  </si>
-  <si>
-    <t>Ural,Krasnodar(7) Nizhny Novgorod(12) Sochi(2) Spartak Moscow(9) Dynamo Moscow(3) FK Rostov(11) Rubin Kazan(8) Lokomotiv Moscow(4) Arsenal Tula(14) Ufa(13) CSKA Moscow(5) Akhmat Grozny(10) Khimki(15) Zenit(1)</t>
-  </si>
-  <si>
-    <t>Zenit,Khimki(15) FK Rostov(11) Krasnodar(7) Lokomotiv Moscow(4) Ufa(13) CSKA Moscow(5) Akhmat Grozny(10) Rubin Kazan(8) FK Krylya Sovetov Samara(6) Sochi(2) Arsenal Tula(14) Spartak Moscow(9) Dynamo Moscow(3) Ural(16)</t>
+    <t>Akhmat Grozny,W L L W L W</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,L D W L L D</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,W D W W L L</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,W L D W L W</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,L W W L W W</t>
+  </si>
+  <si>
+    <t>FK Rostov,L W L W D W</t>
+  </si>
+  <si>
+    <t>Khimki,D D W L D L</t>
+  </si>
+  <si>
+    <t>Krasnodar,W D D W L L</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,D L D W W D</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,L W L L L L</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,L L D D W L</t>
+  </si>
+  <si>
+    <t>Sochi,L W W L W W</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,W W D L D D</t>
+  </si>
+  <si>
+    <t>Ufa,L L D D W D</t>
+  </si>
+  <si>
+    <t>Ural,W W L L D D</t>
+  </si>
+  <si>
+    <t>Zenit,W L L W W D</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,2 0 0 1 0 3,(6)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,0 0 2 0 1 0,(3)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,2 0 1 3 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,2 0 2 4 1 1,(10)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,1 1 2 1 1 3,(9)</t>
+  </si>
+  <si>
+    <t>FK Rostov,1 2 2 4 1 5,(15)</t>
+  </si>
+  <si>
+    <t>Khimki,0 0 2 1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Krasnodar,3 0 1 4 0 0,(8)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,0 1 2 2 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,0 1 0 1 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,0 0 2 1 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Sochi,0 2 3 1 2 4,(12)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,2 1 2 1 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Ufa,0 0 1 1 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Ural,2 1 0 0 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Zenit,2 1 1 7 4 0,(15)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,1 1 2 0 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,2 0 1 4 2 0,(9)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,0 0 0 1 1 4,(6)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,0 1 2 1 4 0,(8)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,2 0 0 3 0 0,(5)</t>
+  </si>
+  <si>
+    <t>FK Rostov,2 1 3 0 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Khimki,0 0 0 4 0 3,(7)</t>
+  </si>
+  <si>
+    <t>Krasnodar,0 0 1 1 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,0 2 2 1 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,2 0 2 4 2 3,(13)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,2 1 2 1 0 5,(11)</t>
+  </si>
+  <si>
+    <t>Sochi,3 1 2 2 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,0 0 2 7 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Ufa,2 1 1 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Ural,0 0 1 1 0 0,(2)</t>
+  </si>
+  <si>
+    <t>Zenit,1 2 2 1 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,3 1 2 1 1 4,(12)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,2 0 3 4 3 0,(12)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,2 0 1 4 1 5,(13)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,2 1 4 5 5 1,(18)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,3 1 2 4 1 3,(14)</t>
+  </si>
+  <si>
+    <t>FK Rostov,3 3 5 4 2 6,(23)</t>
+  </si>
+  <si>
+    <t>Khimki,0 0 2 5 0 3,(10)</t>
+  </si>
+  <si>
+    <t>Krasnodar,3 0 2 5 1 1,(12)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,0 3 4 3 3 2,(15)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,2 1 2 5 3 4,(17)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,2 1 4 2 1 6,(16)</t>
+  </si>
+  <si>
+    <t>Sochi,3 3 5 3 3 5,(22)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,2 1 4 8 2 2,(19)</t>
+  </si>
+  <si>
+    <t>Ufa,2 1 2 2 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Ural,2 1 1 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Zenit,3 3 3 8 5 0,(22)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,1-2 0-1 2-0 1-0 1-0 3-1</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,2-0 0-0 2-1 4-0 1-2 0-0</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,0-2 0-0 0-1 3-1 1-0 4-1</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,2-0 0-1 2-2 4-1 4-1 1-0</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,2-1 0-1 2-0 3-1 0-1 3-0</t>
+  </si>
+  <si>
+    <t>FK Rostov,1-2 1-2 3-2 4-0 1-1 5-1</t>
+  </si>
+  <si>
+    <t>Khimki,0-0 0-0 2-0 4-1 0-0 3-0</t>
+  </si>
+  <si>
+    <t>Krasnodar,3-0 0-0 1-1 1-4 0-1 1-0</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,0-0 1-2 2-2 2-1 1-2 1-1</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,0-2 0-1 2-0 1-4 1-2 3-1</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,2-0 0-1 2-2 1-1 1-0 5-1</t>
+  </si>
+  <si>
+    <t>Sochi,3-0 1-2 3-2 2-1 1-2 4-1</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,2-0 0-1 2-2 7-1 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Ufa,2-0 0-1 1-1 1-1 1-0 0-0</t>
+  </si>
+  <si>
+    <t>Ural,2-0 0-1 0-1 1-0 0-0 0-0</t>
+  </si>
+  <si>
+    <t>Zenit,2-1 1-2 2-1 7-1 4-1 0-0</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,1 -1 -2 1 -1 2,(0)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,-2 0 1 -4 -1 0,(-6)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,2 0 1 2 -1 -3,(1)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,2 -1 0 3 -3 1,(2)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,-1 1 2 -2 1 3,(4)</t>
+  </si>
+  <si>
+    <t>FK Rostov,-1 1 -1 4 0 4,(7)</t>
+  </si>
+  <si>
+    <t>Khimki,0 0 2 -3 0 -3,(-4)</t>
+  </si>
+  <si>
+    <t>Krasnodar,3 0 0 3 -1 -1,(4)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,0 -1 0 1 1 0,(1)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,-2 1 -2 -3 -1 -2,(-9)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,-2 -1 0 0 1 -4,(-6)</t>
+  </si>
+  <si>
+    <t>Sochi,-3 1 1 -1 1 3,(2)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,2 1 0 -6 0 0,(-3)</t>
+  </si>
+  <si>
+    <t>Ufa,-2 -1 0 0 1 0,(-2)</t>
+  </si>
+  <si>
+    <t>Ural,2 1 -1 -1 0 0,(1)</t>
+  </si>
+  <si>
+    <t>Zenit,1 -1 -1 6 3 0,(8)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,FK Rostov(11) Spartak Moscow(9) Khimki(15) Ural(16) Ufa(13) Nizhny Novgorod(12)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,Ural(16) Khimki(15) Zenit(1) FK Rostov(11) Sochi(2) Ufa(13)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,Nizhny Novgorod(12) Krasnodar(7) Ural(16) FK Krylya Sovetov Samara(6) Rubin Kazan(8) Sochi(2)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,Rubin Kazan(8) FK Krylya Sovetov Samara(6) Spartak Moscow(9) Khimki(15) Zenit(1) Krasnodar(7)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,Zenit(1) Dynamo Moscow(3) Nizhny Novgorod(12) CSKA Moscow(5) Krasnodar(7) Khimki(15)</t>
+  </si>
+  <si>
+    <t>FK Rostov,Akhmat Grozny(10) Lokomotiv Moscow(4) Sochi(2) Arsenal Tula(14) Spartak Moscow(9) Rubin Kazan(8)</t>
+  </si>
+  <si>
+    <t>Khimki,Lokomotiv Moscow(4) Arsenal Tula(14) Akhmat Grozny(10) Dynamo Moscow(3) Ural(16) FK Krylya Sovetov Samara(6)</t>
+  </si>
+  <si>
+    <t>Krasnodar,Sochi(2) CSKA Moscow(5) Ufa(13) Nizhny Novgorod(12) FK Krylya Sovetov Samara(6) Dynamo Moscow(3)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,Khimki(15) FK Rostov(11) Rubin Kazan(8) Sochi(2) Nizhny Novgorod(12) Spartak Moscow(9)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,CSKA Moscow(5) Rubin Kazan(8) FK Krylya Sovetov Samara(6) Krasnodar(7) Lokomotiv Moscow(4) Akhmat Grozny(10)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,Dynamo Moscow(3) Nizhny Novgorod(12) Lokomotiv Moscow(4) Ufa(13) CSKA Moscow(5) FK Rostov(11)</t>
+  </si>
+  <si>
+    <t>Sochi,Krasnodar(7) Zenit(1) FK Rostov(11) Lokomotiv Moscow(4) Arsenal Tula(14) CSKA Moscow(5)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,Ufa(13) Akhmat Grozny(10) Dynamo Moscow(3) Zenit(1) FK Rostov(11) Lokomotiv Moscow(4)</t>
+  </si>
+  <si>
+    <t>Ufa,Spartak Moscow(9) Ural(16) Krasnodar(7) Rubin Kazan(8) Akhmat Grozny(10) Arsenal Tula(14)</t>
+  </si>
+  <si>
+    <t>Ural,Arsenal Tula(14) Ufa(13) CSKA Moscow(5) Akhmat Grozny(10) Khimki(15) Zenit(1)</t>
+  </si>
+  <si>
+    <t>Zenit,FK Krylya Sovetov Samara(6) Sochi(2) Arsenal Tula(14) Spartak Moscow(9) Dynamo Moscow(3) Ural(16)</t>
   </si>
   <si>
     <t>rus_division</t>

--- a/RUS.xlsx
+++ b/RUS.xlsx
@@ -518,340 +518,340 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Akhmat Grozny,L L W L W W</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,D W L L D L</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,D W W L L D</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,L D W L W W</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,W W L W W D</t>
-  </si>
-  <si>
-    <t>FK Rostov,W L W D W D</t>
-  </si>
-  <si>
-    <t>Khimki,D W L D L D</t>
-  </si>
-  <si>
-    <t>Krasnodar,D D W L L W</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,L D W W D L</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,W L L L L L</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,L D D W L W</t>
-  </si>
-  <si>
-    <t>Sochi,W W L W W L</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,W D L D D L</t>
-  </si>
-  <si>
-    <t>Ufa,L D D W D D</t>
-  </si>
-  <si>
-    <t>Ural,W L L D D D</t>
-  </si>
-  <si>
-    <t>Zenit,L L W W D W</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,0 0 1 0 3 2,(6)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,0 2 0 1 0 1,(4)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,0 1 3 0 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,0 2 4 1 1 5,(13)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,1 2 1 1 3 1,(9)</t>
-  </si>
-  <si>
-    <t>FK Rostov,2 2 4 1 5 2,(16)</t>
-  </si>
-  <si>
-    <t>Khimki,0 2 1 0 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Krasnodar,0 1 4 0 0 2,(7)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,1 2 2 2 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,1 0 1 1 1 1,(5)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,0 2 1 1 1 2,(7)</t>
-  </si>
-  <si>
-    <t>Sochi,2 3 1 2 4 1,(13)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,1 2 1 1 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Ufa,0 1 1 1 0 2,(5)</t>
-  </si>
-  <si>
-    <t>Ural,1 0 0 0 0 1,(2)</t>
-  </si>
-  <si>
-    <t>Zenit,1 1 7 4 0 5,(18)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,1 2 0 1 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,0 1 4 2 0 5,(12)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,0 0 1 1 4 0,(6)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,1 2 1 4 0 1,(9)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,0 0 3 0 0 1,(4)</t>
-  </si>
-  <si>
-    <t>FK Rostov,1 3 0 1 1 2,(8)</t>
-  </si>
-  <si>
-    <t>Khimki,0 0 4 0 3 0,(7)</t>
-  </si>
-  <si>
-    <t>Krasnodar,0 1 1 1 1 1,(5)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,2 2 1 1 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,0 2 4 2 3 5,(16)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,1 2 1 0 5 1,(10)</t>
-  </si>
-  <si>
-    <t>Sochi,1 2 2 1 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,0 2 7 1 1 2,(13)</t>
-  </si>
-  <si>
-    <t>Ufa,1 1 1 0 0 2,(5)</t>
-  </si>
-  <si>
-    <t>Ural,0 1 1 0 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Zenit,2 2 1 1 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,1 2 1 1 4 3,(12)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,0 3 4 3 0 6,(16)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,0 1 4 1 5 0,(11)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,1 4 5 5 1 6,(22)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,1 2 4 1 3 2,(13)</t>
-  </si>
-  <si>
-    <t>FK Rostov,3 5 4 2 6 4,(24)</t>
-  </si>
-  <si>
-    <t>Khimki,0 2 5 0 3 0,(10)</t>
-  </si>
-  <si>
-    <t>Krasnodar,0 2 5 1 1 3,(12)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,3 4 3 3 2 3,(18)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,1 2 5 3 4 6,(21)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,1 4 2 1 6 3,(17)</t>
-  </si>
-  <si>
-    <t>Sochi,3 5 3 3 5 3,(22)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,1 4 8 2 2 3,(20)</t>
-  </si>
-  <si>
-    <t>Ufa,1 2 2 1 0 4,(10)</t>
-  </si>
-  <si>
-    <t>Ural,1 1 1 0 0 2,(5)</t>
-  </si>
-  <si>
-    <t>Zenit,3 3 8 5 0 6,(25)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,0-1 2-0 1-0 1-0 3-1 1-2</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,0-0 2-1 4-0 1-2 0-0 5-1</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,0-0 0-1 3-1 1-0 4-1 0-0</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,0-1 2-2 4-1 4-1 1-0 5-1</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,0-1 2-0 3-1 0-1 3-0 1-1</t>
-  </si>
-  <si>
-    <t>FK Rostov,1-2 3-2 4-0 1-1 5-1 2-2</t>
-  </si>
-  <si>
-    <t>Khimki,0-0 2-0 4-1 0-0 3-0 0-0</t>
-  </si>
-  <si>
-    <t>Krasnodar,0-0 1-1 1-4 0-1 1-0 2-1</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,1-2 2-2 2-1 1-2 1-1 1-2</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,0-1 2-0 1-4 1-2 3-1 5-1</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,0-1 2-2 1-1 1-0 5-1 1-2</t>
-  </si>
-  <si>
-    <t>Sochi,1-2 3-2 2-1 1-2 4-1 1-2</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,0-1 2-2 7-1 1-1 1-1 2-1</t>
-  </si>
-  <si>
-    <t>Ufa,0-1 1-1 1-1 1-0 0-0 2-2</t>
-  </si>
-  <si>
-    <t>Ural,0-1 0-1 1-0 0-0 0-0 1-1</t>
-  </si>
-  <si>
-    <t>Zenit,1-2 2-1 7-1 4-1 0-0 5-1</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,-1 -2 1 -1 2 1,(0)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,0 1 -4 -1 0 -4,(-8)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,0 1 2 -1 -3 0,(-1)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,-1 0 3 -3 1 4,(4)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,1 2 -2 1 3 0,(5)</t>
-  </si>
-  <si>
-    <t>FK Rostov,1 -1 4 0 4 0,(8)</t>
-  </si>
-  <si>
-    <t>Khimki,0 2 -3 0 -3 0,(-4)</t>
-  </si>
-  <si>
-    <t>Krasnodar,0 0 3 -1 -1 1,(2)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,-1 0 1 1 0 -1,(0)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,1 -2 -3 -1 -2 -4,(-11)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,-1 0 0 1 -4 1,(-3)</t>
-  </si>
-  <si>
-    <t>Sochi,1 1 -1 1 3 -1,(4)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,1 0 -6 0 0 -1,(-6)</t>
-  </si>
-  <si>
-    <t>Ufa,-1 0 0 1 0 0,(0)</t>
-  </si>
-  <si>
-    <t>Ural,1 -1 -1 0 0 0,(-1)</t>
-  </si>
-  <si>
-    <t>Zenit,-1 -1 6 3 0 4,(11)</t>
-  </si>
-  <si>
-    <t>Akhmat Grozny,Spartak Moscow(10) Khimki(15) Ural(16) Ufa(12) Nizhny Novgorod(13) Lokomotiv Moscow(4)</t>
-  </si>
-  <si>
-    <t>Arsenal Tula,Khimki(15) Zenit(1) FK Rostov(11) Sochi(3) Ufa(12) Dynamo Moscow(2)</t>
-  </si>
-  <si>
-    <t>CSKA Moscow,Krasnodar(6) Ural(16) FK Krylya Sovetov Samara(7) Rubin Kazan(8) Sochi(3) Khimki(15)</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow,FK Krylya Sovetov Samara(7) Spartak Moscow(10) Khimki(15) Zenit(1) Krasnodar(6) Arsenal Tula(14)</t>
-  </si>
-  <si>
-    <t>FK Krylya Sovetov Samara,Dynamo Moscow(2) Nizhny Novgorod(13) CSKA Moscow(5) Krasnodar(6) Khimki(15) Ural(16)</t>
-  </si>
-  <si>
-    <t>FK Rostov,Lokomotiv Moscow(4) Sochi(3) Arsenal Tula(14) Spartak Moscow(10) Rubin Kazan(8) Ufa(12)</t>
-  </si>
-  <si>
-    <t>Khimki,Arsenal Tula(14) Akhmat Grozny(9) Dynamo Moscow(2) Ural(16) FK Krylya Sovetov Samara(7) CSKA Moscow(5)</t>
-  </si>
-  <si>
-    <t>Krasnodar,CSKA Moscow(5) Ufa(12) Nizhny Novgorod(13) FK Krylya Sovetov Samara(7) Dynamo Moscow(2) Spartak Moscow(10)</t>
-  </si>
-  <si>
-    <t>Lokomotiv Moscow,FK Rostov(11) Rubin Kazan(8) Sochi(3) Nizhny Novgorod(13) Spartak Moscow(10) Akhmat Grozny(9)</t>
-  </si>
-  <si>
-    <t>Nizhny Novgorod,Rubin Kazan(8) FK Krylya Sovetov Samara(7) Krasnodar(6) Lokomotiv Moscow(4) Akhmat Grozny(9) Zenit(1)</t>
-  </si>
-  <si>
-    <t>Rubin Kazan,Nizhny Novgorod(13) Lokomotiv Moscow(4) Ufa(12) CSKA Moscow(5) FK Rostov(11) Sochi(3)</t>
-  </si>
-  <si>
-    <t>Sochi,Zenit(1) FK Rostov(11) Lokomotiv Moscow(4) Arsenal Tula(14) CSKA Moscow(5) Rubin Kazan(8)</t>
-  </si>
-  <si>
-    <t>Spartak Moscow,Akhmat Grozny(9) Dynamo Moscow(2) Zenit(1) FK Rostov(11) Lokomotiv Moscow(4) Krasnodar(6)</t>
-  </si>
-  <si>
-    <t>Ufa,Ural(16) Krasnodar(6) Rubin Kazan(8) Akhmat Grozny(9) Arsenal Tula(14) FK Rostov(11)</t>
-  </si>
-  <si>
-    <t>Ural,Ufa(12) CSKA Moscow(5) Akhmat Grozny(9) Khimki(15) Zenit(1) FK Krylya Sovetov Samara(7)</t>
-  </si>
-  <si>
-    <t>Zenit,Sochi(3) Arsenal Tula(14) Spartak Moscow(10) Dynamo Moscow(2) Ural(16) Nizhny Novgorod(13)</t>
+    <t>Akhmat Grozny,W L L W L W L L W L L W L W W</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,L L W L D L D W L D W L L D L</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,W L L W W L D W W D W W L L D</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,W W W L W D L W W L D W L W W</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,L L L D W W L W L W W L W W D</t>
+  </si>
+  <si>
+    <t>FK Rostov,L L D L W D D L L W L W D W D</t>
+  </si>
+  <si>
+    <t>Khimki,L W D L D D L L D D W L D L D</t>
+  </si>
+  <si>
+    <t>Krasnodar,W L L W L W D W W D D W L L W</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,W W D D W D W D D L D W W D L</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,W D W L L D W L L W L L L L L</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,W W W D D L W L L L D D W L W</t>
+  </si>
+  <si>
+    <t>Sochi,L W W W L W W L L W W L W W L</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,L W L W D L W L W W D L D D L</t>
+  </si>
+  <si>
+    <t>Ufa,L L D W D L L W L L D D W D D</t>
+  </si>
+  <si>
+    <t>Ural,L D L L L D L D W W L L D D D</t>
+  </si>
+  <si>
+    <t>Zenit,W W W D D W W W W L L W W D W</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,2 1 1 2 0 2 1 0 2 0 0 1 0 3 2,(17)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,1 0 2 2 1 1 2 3 0 0 2 0 1 0 1,(16)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,1 1 1 3 2 0 2 1 2 0 1 3 0 1 0,(18)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,2 3 2 1 1 1 1 1 2 0 2 4 1 1 5,(27)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,1 0 1 1 1 2 0 4 1 1 2 1 1 3 1,(20)</t>
+  </si>
+  <si>
+    <t>FK Rostov,0 2 1 1 2 1 1 2 1 2 2 4 1 5 2,(27)</t>
+  </si>
+  <si>
+    <t>Khimki,1 1 1 0 1 1 1 2 0 0 2 1 0 0 0,(11)</t>
+  </si>
+  <si>
+    <t>Krasnodar,3 0 2 3 1 2 1 2 3 0 1 4 0 0 2,(24)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,3 2 1 1 2 1 2 0 0 1 2 2 2 1 1,(21)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,1 1 2 1 1 1 2 2 0 1 0 1 1 1 1,(16)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,1 3 2 1 1 0 4 1 0 0 2 1 1 1 2,(20)</t>
+  </si>
+  <si>
+    <t>Sochi,0 2 2 3 0 2 3 0 0 2 3 1 2 4 1,(25)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,0 1 1 1 1 1 3 0 2 1 2 1 1 1 1,(17)</t>
+  </si>
+  <si>
+    <t>Ufa,0 2 1 2 1 1 1 3 0 0 1 1 1 0 2,(16)</t>
+  </si>
+  <si>
+    <t>Ural,0 1 0 0 0 1 0 0 2 1 0 0 0 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Zenit,3 4 3 1 1 1 3 3 2 1 1 7 4 0 5,(39)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,1 2 2 1 2 1 3 2 1 1 2 0 1 1 1,(21)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,3 3 1 3 1 2 2 2 2 0 1 4 2 0 5,(31)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,0 2 2 1 0 1 2 0 0 0 0 1 1 4 0,(14)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,0 2 1 2 0 1 2 0 0 1 2 1 4 0 1,(17)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,2 1 2 1 0 1 2 2 2 0 0 3 0 0 1,(17)</t>
+  </si>
+  <si>
+    <t>FK Rostov,2 4 1 3 1 1 1 4 2 1 3 0 1 1 2,(27)</t>
+  </si>
+  <si>
+    <t>Khimki,3 0 1 3 1 1 3 3 0 0 0 4 0 3 0,(22)</t>
+  </si>
+  <si>
+    <t>Krasnodar,0 1 3 2 2 0 1 0 0 0 1 1 1 1 1,(14)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,1 1 1 1 1 1 0 0 0 2 2 1 1 1 2,(15)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,0 1 1 2 2 1 1 3 2 0 2 4 2 3 5,(29)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,0 0 1 1 1 2 0 3 2 1 2 1 0 5 1,(20)</t>
+  </si>
+  <si>
+    <t>Sochi,1 1 0 0 1 1 1 1 3 1 2 2 1 1 2,(18)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,1 0 2 0 1 2 1 1 0 0 2 7 1 1 2,(21)</t>
+  </si>
+  <si>
+    <t>Ufa,1 3 1 1 1 2 3 2 2 1 1 1 0 0 2,(21)</t>
+  </si>
+  <si>
+    <t>Ural,3 1 2 1 1 1 4 0 0 0 1 1 0 0 1,(16)</t>
+  </si>
+  <si>
+    <t>Zenit,1 2 2 1 1 0 1 1 1 2 2 1 1 0 1,(17)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,3 3 3 3 2 3 4 2 3 1 2 1 1 4 3,(38)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,4 3 3 5 2 3 4 5 2 0 3 4 3 0 6,(47)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,1 3 3 4 2 1 4 1 2 0 1 4 1 5 0,(32)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,2 5 3 3 1 2 3 1 2 1 4 5 5 1 6,(44)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,3 1 3 2 1 3 2 6 3 1 2 4 1 3 2,(37)</t>
+  </si>
+  <si>
+    <t>FK Rostov,2 6 2 4 3 2 2 6 3 3 5 4 2 6 4,(54)</t>
+  </si>
+  <si>
+    <t>Khimki,4 1 2 3 2 2 4 5 0 0 2 5 0 3 0,(33)</t>
+  </si>
+  <si>
+    <t>Krasnodar,3 1 5 5 3 2 2 2 3 0 2 5 1 1 3,(38)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,4 3 2 2 3 2 2 0 0 3 4 3 3 2 3,(36)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,1 2 3 3 3 2 3 5 2 1 2 5 3 4 6,(45)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,1 3 3 2 2 2 4 4 2 1 4 2 1 6 3,(40)</t>
+  </si>
+  <si>
+    <t>Sochi,1 3 2 3 1 3 4 1 3 3 5 3 3 5 3,(43)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,1 1 3 1 2 3 4 1 2 1 4 8 2 2 3,(38)</t>
+  </si>
+  <si>
+    <t>Ufa,1 5 2 3 2 3 4 5 2 1 2 2 1 0 4,(37)</t>
+  </si>
+  <si>
+    <t>Ural,3 2 2 1 1 2 4 0 2 1 1 1 0 0 2,(22)</t>
+  </si>
+  <si>
+    <t>Zenit,4 6 5 2 2 1 4 4 3 3 3 8 5 0 6,(56)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,1-2 1-2 2-1 2-1 2-0 2-1 3-1 0-2 1-2 0-1 2-0 1-0 1-0 3-1 1-2</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,3-1 0-3 2-1 3-2 1-1 2-1 2-2 2-3 2-0 0-0 2-1 4-0 1-2 0-0 5-1</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,1-0 1-2 2-1 1-3 2-0 1-0 2-2 1-0 0-2 0-0 0-1 3-1 1-0 4-1 0-0</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,0-2 2-3 2-1 2-1 0-1 1-1 1-2 0-1 2-0 0-1 2-2 4-1 4-1 1-0 5-1</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,1-2 0-1 2-1 1-1 1-0 1-2 2-0 4-2 2-1 0-1 2-0 3-1 0-1 3-0 1-1</t>
+  </si>
+  <si>
+    <t>FK Rostov,0-2 2-4 1-1 1-3 1-2 1-1 1-1 4-2 1-2 1-2 3-2 4-0 1-1 5-1 2-2</t>
+  </si>
+  <si>
+    <t>Khimki,1-3 0-1 1-1 3-0 1-1 1-1 3-1 3-2 0-0 0-0 2-0 4-1 0-0 3-0 0-0</t>
+  </si>
+  <si>
+    <t>Krasnodar,0-3 0-1 3-2 3-2 2-1 2-0 1-1 0-2 3-0 0-0 1-1 1-4 0-1 1-0 2-1</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,3-1 1-2 1-1 1-1 2-1 1-1 2-0 0-0 0-0 1-2 2-2 2-1 1-2 1-1 1-2</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,1-0 1-1 1-2 1-2 1-2 1-1 1-2 2-3 0-2 0-1 2-0 1-4 1-2 3-1 5-1</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,1-0 0-3 2-1 1-1 1-1 2-0 4-0 1-3 2-0 0-1 2-2 1-1 1-0 5-1 1-2</t>
+  </si>
+  <si>
+    <t>Sochi,1-0 1-2 2-0 3-0 1-0 1-2 3-1 0-1 3-0 1-2 3-2 2-1 1-2 4-1 1-2</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,1-0 0-1 1-2 1-0 1-1 1-2 3-1 1-0 2-0 0-1 2-2 7-1 1-1 1-1 2-1</t>
+  </si>
+  <si>
+    <t>Ufa,1-0 2-3 1-1 1-2 1-1 1-2 3-1 3-2 2-0 0-1 1-1 1-1 1-0 0-0 2-2</t>
+  </si>
+  <si>
+    <t>Ural,0-3 1-1 2-0 1-0 0-1 1-1 4-0 0-0 2-0 0-1 0-1 1-0 0-0 0-0 1-1</t>
+  </si>
+  <si>
+    <t>Zenit,1-3 2-4 3-2 1-1 1-1 1-0 3-1 1-3 2-1 1-2 2-1 7-1 4-1 0-0 5-1</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,1 -1 -1 1 -2 1 -2 -2 1 -1 -2 1 -1 2 1,(-4)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,-2 -3 1 -1 0 -1 0 1 -2 0 1 -4 -1 0 -4,(-15)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,1 -1 -1 2 2 -1 0 1 2 0 1 2 -1 -3 0,(4)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,2 1 1 -1 1 0 -1 1 2 -1 0 3 -3 1 4,(10)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,-1 -1 -1 0 1 1 -2 2 -1 1 2 -2 1 3 0,(3)</t>
+  </si>
+  <si>
+    <t>FK Rostov,-2 -2 0 -2 1 0 0 -2 -1 1 -1 4 0 4 0,(0)</t>
+  </si>
+  <si>
+    <t>Khimki,-2 1 0 -3 0 0 -2 -1 0 0 2 -3 0 -3 0,(-11)</t>
+  </si>
+  <si>
+    <t>Krasnodar,3 -1 -1 1 -1 2 0 2 3 0 0 3 -1 -1 1,(10)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,2 1 0 0 1 0 2 0 0 -1 0 1 1 0 -1,(6)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,1 0 1 -1 -1 0 1 -1 -2 1 -2 -3 -1 -2 -4,(-13)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,1 3 1 0 0 -2 4 -2 -2 -1 0 0 1 -4 1,(0)</t>
+  </si>
+  <si>
+    <t>Sochi,-1 1 2 3 -1 1 2 -1 -3 1 1 -1 1 3 -1,(7)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,-1 1 -1 1 0 -1 2 -1 2 1 0 -6 0 0 -1,(-4)</t>
+  </si>
+  <si>
+    <t>Ufa,-1 -1 0 1 0 -1 -2 1 -2 -1 0 0 1 0 0,(-5)</t>
+  </si>
+  <si>
+    <t>Ural,-3 0 -2 -1 -1 0 -4 0 2 1 -1 -1 0 0 0,(-10)</t>
+  </si>
+  <si>
+    <t>Zenit,2 2 1 0 0 1 2 2 1 -1 -1 6 3 0 4,(22)</t>
+  </si>
+  <si>
+    <t>Akhmat Grozny,FK Krylya Sovetov Samara(7) Sochi(3) Rubin Kazan(8) Dynamo Moscow(2) CSKA Moscow(5) Arsenal Tula(14) Zenit(1) Krasnodar(6) FK Rostov(11) Spartak Moscow(10) Khimki(15) Ural(16) Ufa(12) Nizhny Novgorod(13) Lokomotiv Moscow(4)</t>
+  </si>
+  <si>
+    <t>Arsenal Tula,Lokomotiv Moscow(4) Rubin Kazan(8) FK Krylya Sovetov Samara(7) Krasnodar(6) Spartak Moscow(10) Akhmat Grozny(9) CSKA Moscow(5) Nizhny Novgorod(13) Ural(16) Khimki(15) Zenit(1) FK Rostov(11) Sochi(3) Ufa(12) Dynamo Moscow(2)</t>
+  </si>
+  <si>
+    <t>CSKA Moscow,Ufa(12) Lokomotiv Moscow(4) Dynamo Moscow(2) FK Rostov(11) Akhmat Grozny(9) Zenit(1) Arsenal Tula(14) Spartak Moscow(10) Nizhny Novgorod(13) Krasnodar(6) Ural(16) FK Krylya Sovetov Samara(7) Rubin Kazan(8) Sochi(3) Khimki(15)</t>
+  </si>
+  <si>
+    <t>Dynamo Moscow,FK Rostov(11) Ufa(12) CSKA Moscow(5) Akhmat Grozny(9) Ural(16) Lokomotiv Moscow(4) Nizhny Novgorod(13) Sochi(3) Rubin Kazan(8) FK Krylya Sovetov Samara(7) Spartak Moscow(10) Khimki(15) Zenit(1) Krasnodar(6) Arsenal Tula(14)</t>
+  </si>
+  <si>
+    <t>FK Krylya Sovetov Samara,Akhmat Grozny(9) Spartak Moscow(10) Arsenal Tula(14) Rubin Kazan(8) Sochi(3) Ufa(12) Lokomotiv Moscow(4) FK Rostov(11) Zenit(1) Dynamo Moscow(2) Nizhny Novgorod(13) CSKA Moscow(5) Krasnodar(6) Khimki(15) Ural(16)</t>
+  </si>
+  <si>
+    <t>FK Rostov,Dynamo Moscow(2) Zenit(1) Khimki(15) CSKA Moscow(5) Nizhny Novgorod(13) Ural(16) Krasnodar(6) FK Krylya Sovetov Samara(7) Akhmat Grozny(9) Lokomotiv Moscow(4) Sochi(3) Arsenal Tula(14) Spartak Moscow(10) Rubin Kazan(8) Ufa(12)</t>
+  </si>
+  <si>
+    <t>Khimki,Zenit(1) Krasnodar(6) FK Rostov(11) Sochi(3) Rubin Kazan(8) Nizhny Novgorod(13) Spartak Moscow(10) Ufa(12) Lokomotiv Moscow(4) Arsenal Tula(14) Akhmat Grozny(9) Dynamo Moscow(2) Ural(16) FK Krylya Sovetov Samara(7) CSKA Moscow(5)</t>
+  </si>
+  <si>
+    <t>Krasnodar,Ural(16) Khimki(15) Zenit(1) Arsenal Tula(14) Lokomotiv Moscow(4) Rubin Kazan(8) FK Rostov(11) Akhmat Grozny(9) Sochi(3) CSKA Moscow(5) Ufa(12) Nizhny Novgorod(13) FK Krylya Sovetov Samara(7) Dynamo Moscow(2) Spartak Moscow(10)</t>
+  </si>
+  <si>
+    <t>Lokomotiv Moscow,Arsenal Tula(14) CSKA Moscow(5) Ufa(12) Zenit(1) Krasnodar(6) Dynamo Moscow(2) FK Krylya Sovetov Samara(7) Ural(16) Khimki(15) FK Rostov(11) Rubin Kazan(8) Sochi(3) Nizhny Novgorod(13) Spartak Moscow(10) Akhmat Grozny(9)</t>
+  </si>
+  <si>
+    <t>Nizhny Novgorod,Sochi(3) Ural(16) Spartak Moscow(10) Ufa(12) FK Rostov(11) Khimki(15) Dynamo Moscow(2) Arsenal Tula(14) CSKA Moscow(5) Rubin Kazan(8) FK Krylya Sovetov Samara(7) Krasnodar(6) Lokomotiv Moscow(4) Akhmat Grozny(9) Zenit(1)</t>
+  </si>
+  <si>
+    <t>Rubin Kazan,Spartak Moscow(10) Arsenal Tula(14) Akhmat Grozny(9) FK Krylya Sovetov Samara(7) Khimki(15) Krasnodar(6) Ural(16) Zenit(1) Dynamo Moscow(2) Nizhny Novgorod(13) Lokomotiv Moscow(4) Ufa(12) CSKA Moscow(5) FK Rostov(11) Sochi(3)</t>
+  </si>
+  <si>
+    <t>Sochi,Nizhny Novgorod(13) Akhmat Grozny(9) Ural(16) Khimki(15) FK Krylya Sovetov Samara(7) Spartak Moscow(10) Ufa(12) Dynamo Moscow(2) Krasnodar(6) Zenit(1) FK Rostov(11) Lokomotiv Moscow(4) Arsenal Tula(14) CSKA Moscow(5) Rubin Kazan(8)</t>
+  </si>
+  <si>
+    <t>Spartak Moscow,Rubin Kazan(8) FK Krylya Sovetov Samara(7) Nizhny Novgorod(13) Ural(16) Arsenal Tula(14) Sochi(3) Khimki(15) CSKA Moscow(5) Ufa(12) Akhmat Grozny(9) Dynamo Moscow(2) Zenit(1) FK Rostov(11) Lokomotiv Moscow(4) Krasnodar(6)</t>
+  </si>
+  <si>
+    <t>Ufa,CSKA Moscow(5) Dynamo Moscow(2) Lokomotiv Moscow(4) Nizhny Novgorod(13) Zenit(1) FK Krylya Sovetov Samara(7) Sochi(3) Khimki(15) Spartak Moscow(10) Ural(16) Krasnodar(6) Rubin Kazan(8) Akhmat Grozny(9) Arsenal Tula(14) FK Rostov(11)</t>
+  </si>
+  <si>
+    <t>Ural,Krasnodar(6) Nizhny Novgorod(13) Sochi(3) Spartak Moscow(10) Dynamo Moscow(2) FK Rostov(11) Rubin Kazan(8) Lokomotiv Moscow(4) Arsenal Tula(14) Ufa(12) CSKA Moscow(5) Akhmat Grozny(9) Khimki(15) Zenit(1) FK Krylya Sovetov Samara(7)</t>
+  </si>
+  <si>
+    <t>Zenit,Khimki(15) FK Rostov(11) Krasnodar(6) Lokomotiv Moscow(4) Ufa(12) CSKA Moscow(5) Akhmat Grozny(9) Rubin Kazan(8) FK Krylya Sovetov Samara(7) Sochi(3) Arsenal Tula(14) Spartak Moscow(10) Dynamo Moscow(2) Ural(16) Nizhny Novgorod(13)</t>
   </si>
   <si>
     <t>rus_division</t>
